--- a/steamdb.xlsx
+++ b/steamdb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Microsoft\Documents\CS-UNESP\data-science-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Microsoft\Documents\GitHub\icd-steamdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDC0A4A-610C-412F-94A0-19EDB0D0154F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE5DE41-1EFB-4CA8-B9DA-5E006ACF29F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="0" windowWidth="18450" windowHeight="15600" xr2:uid="{89D749C2-D44D-43A6-AD28-2C6B9DCC19F4}"/>
+    <workbookView xWindow="330" yWindow="1200" windowWidth="19695" windowHeight="9375" xr2:uid="{89D749C2-D44D-43A6-AD28-2C6B9DCC19F4}"/>
   </bookViews>
   <sheets>
     <sheet name="SteamDB" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="272">
   <si>
     <t>NAME</t>
   </si>
@@ -604,6 +604,243 @@
   </si>
   <si>
     <t>6.89</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>semiwork</t>
+  </si>
+  <si>
+    <t>26.39</t>
+  </si>
+  <si>
+    <t>Baldur's Gate 3</t>
+  </si>
+  <si>
+    <t>Larian Studios</t>
+  </si>
+  <si>
+    <t>199.99</t>
+  </si>
+  <si>
+    <t>159.99</t>
+  </si>
+  <si>
+    <t>Divinity: Original Sin 2</t>
+  </si>
+  <si>
+    <t>44.99</t>
+  </si>
+  <si>
+    <t>90.99</t>
+  </si>
+  <si>
+    <t>24.20</t>
+  </si>
+  <si>
+    <t>Among Us</t>
+  </si>
+  <si>
+    <t>Innersloth</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>LEGOⓇ Indiana Jones™: The Original Adventures</t>
+  </si>
+  <si>
+    <t>Traveller's Tales</t>
+  </si>
+  <si>
+    <t>LucasArts</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>Devil May Cry 5</t>
+  </si>
+  <si>
+    <t>24.75</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>Like a Dragon: Pirate Yakuza in Hawaii</t>
+  </si>
+  <si>
+    <t>Yakuza Kiwami</t>
+  </si>
+  <si>
+    <t>Yakuza Kiwami 2</t>
+  </si>
+  <si>
+    <t>25.74</t>
+  </si>
+  <si>
+    <t>Yakuza 6: The Song of Life</t>
+  </si>
+  <si>
+    <t>25.05</t>
+  </si>
+  <si>
+    <t>Yakuza 3 Remastered</t>
+  </si>
+  <si>
+    <t>26.85</t>
+  </si>
+  <si>
+    <t>Yakuza 4 Remastered</t>
+  </si>
+  <si>
+    <t>Yakuza 5 Remastered</t>
+  </si>
+  <si>
+    <t>Baldur's Gate II: Enhanced Edition</t>
+  </si>
+  <si>
+    <t>Beamdog</t>
+  </si>
+  <si>
+    <t>5.54</t>
+  </si>
+  <si>
+    <t>Portal 2</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>Kingdom Come: Deliverance II</t>
+  </si>
+  <si>
+    <t>Warhorse Studios</t>
+  </si>
+  <si>
+    <t>Deep Silver</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>Kingdom Come: Deliverance</t>
+  </si>
+  <si>
+    <t>149.00</t>
+  </si>
+  <si>
+    <t>14.49</t>
+  </si>
+  <si>
+    <t>The Last of Us™ Part I</t>
+  </si>
+  <si>
+    <t>Naughty Dog LLC</t>
+  </si>
+  <si>
+    <t>124.95</t>
+  </si>
+  <si>
+    <t>The Last of Us™ Part II Remastered</t>
+  </si>
+  <si>
+    <t>49.99</t>
+  </si>
+  <si>
+    <t>Street Fighter V</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>Ultra Street Fighter IV</t>
+  </si>
+  <si>
+    <t>Capcom</t>
+  </si>
+  <si>
+    <t>7.79</t>
+  </si>
+  <si>
+    <t>Katana ZERO</t>
+  </si>
+  <si>
+    <t>Askiisoft</t>
+  </si>
+  <si>
+    <t>17.39</t>
+  </si>
+  <si>
+    <t>Cult of the Lamb</t>
+  </si>
+  <si>
+    <t>Massive Monster</t>
+  </si>
+  <si>
+    <t>32.47</t>
+  </si>
+  <si>
+    <t>64.95</t>
+  </si>
+  <si>
+    <t>GRIS</t>
+  </si>
+  <si>
+    <t>Nomada Studio</t>
+  </si>
+  <si>
+    <t>4.69</t>
+  </si>
+  <si>
+    <t>LEGO® Star Wars™: The Complete Saga</t>
+  </si>
+  <si>
+    <t>RimWorld</t>
+  </si>
+  <si>
+    <t>Ludeon Studios</t>
+  </si>
+  <si>
+    <t>55.99</t>
+  </si>
+  <si>
+    <t>79.99</t>
+  </si>
+  <si>
+    <t>Borderlands 3</t>
+  </si>
+  <si>
+    <t>Gearbox Software</t>
+  </si>
+  <si>
+    <t>11.99</t>
+  </si>
+  <si>
+    <t>119.90</t>
+  </si>
+  <si>
+    <t>59.90</t>
+  </si>
+  <si>
+    <t>Borderlands 2</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>Hot Dogs, Horseshoes &amp; Hand Grenades</t>
+  </si>
+  <si>
+    <t>RUST LTD.</t>
   </si>
 </sst>
 </file>
@@ -611,7 +848,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -653,7 +890,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +911,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -970,16 +1207,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7597B5E4-8F95-48BF-AA08-A3D10975BCD3}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
@@ -2928,6 +3165,1184 @@
         <v>45739</v>
       </c>
     </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>3241660</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45714</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I52" s="1">
+        <v>87841</v>
+      </c>
+      <c r="J52" s="1">
+        <v>3310</v>
+      </c>
+      <c r="K52" s="1">
+        <v>4</v>
+      </c>
+      <c r="L52" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1086940</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45141</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I53" s="1">
+        <v>717272</v>
+      </c>
+      <c r="J53" s="1">
+        <v>23390</v>
+      </c>
+      <c r="K53" s="1">
+        <v>48</v>
+      </c>
+      <c r="L53" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>435150</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="2">
+        <v>42992</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I54" s="1">
+        <v>180920</v>
+      </c>
+      <c r="J54" s="1">
+        <v>7864</v>
+      </c>
+      <c r="K54" s="1">
+        <v>629</v>
+      </c>
+      <c r="L54" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>945360</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E55" s="2">
+        <v>43420</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" s="1">
+        <v>641946</v>
+      </c>
+      <c r="J55" s="1">
+        <v>56954</v>
+      </c>
+      <c r="K55" s="1">
+        <v>431</v>
+      </c>
+      <c r="L55" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>32330</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="2">
+        <v>40002</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I56" s="1">
+        <v>3355</v>
+      </c>
+      <c r="J56" s="1">
+        <v>444</v>
+      </c>
+      <c r="K56" s="1">
+        <v>6317</v>
+      </c>
+      <c r="L56" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>601150</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="2">
+        <v>43532</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I57" s="1">
+        <v>131692</v>
+      </c>
+      <c r="J57" s="1">
+        <v>5680</v>
+      </c>
+      <c r="K57" s="1">
+        <v>16</v>
+      </c>
+      <c r="L57" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>3061810</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45708</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="1">
+        <v>5420</v>
+      </c>
+      <c r="J58" s="1">
+        <v>509</v>
+      </c>
+      <c r="K58" s="1">
+        <v>427</v>
+      </c>
+      <c r="L58" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>834530</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43515</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" s="1">
+        <v>20081</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1419</v>
+      </c>
+      <c r="K59" s="1">
+        <v>2602</v>
+      </c>
+      <c r="L59" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>927380</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43594</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="1">
+        <v>15578</v>
+      </c>
+      <c r="J60" s="1">
+        <v>775</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2459</v>
+      </c>
+      <c r="L60" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1388590</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="2">
+        <v>44280</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I61" s="1">
+        <v>6571</v>
+      </c>
+      <c r="J61" s="1">
+        <v>481</v>
+      </c>
+      <c r="K61" s="1">
+        <v>4587</v>
+      </c>
+      <c r="L61" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1088710</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="2">
+        <v>44224</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I62" s="1">
+        <v>7170</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1735</v>
+      </c>
+      <c r="K62" s="1">
+        <v>3995</v>
+      </c>
+      <c r="L62" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1105500</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="2">
+        <v>44224</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I63" s="1">
+        <v>5690</v>
+      </c>
+      <c r="J63" s="1">
+        <v>543</v>
+      </c>
+      <c r="K63" s="1">
+        <v>4533</v>
+      </c>
+      <c r="L63" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1105510</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="2">
+        <v>44224</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I64" s="1">
+        <v>5517</v>
+      </c>
+      <c r="J64" s="1">
+        <v>651</v>
+      </c>
+      <c r="K64" s="1">
+        <v>4072</v>
+      </c>
+      <c r="L64" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>257350</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E65" s="2">
+        <v>41593</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I65" s="1">
+        <v>9137</v>
+      </c>
+      <c r="J65" s="1">
+        <v>793</v>
+      </c>
+      <c r="K65" s="1">
+        <v>3616</v>
+      </c>
+      <c r="L65" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>620</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="2">
+        <v>40652</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I66" s="1">
+        <v>423775</v>
+      </c>
+      <c r="J66" s="1">
+        <v>5621</v>
+      </c>
+      <c r="K66" s="1">
+        <v>648</v>
+      </c>
+      <c r="L66" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>400</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="2">
+        <v>39365</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I67" s="1">
+        <v>172783</v>
+      </c>
+      <c r="J67" s="1">
+        <v>2690</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1278</v>
+      </c>
+      <c r="L67" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>292030</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="2">
+        <v>42142</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" s="1">
+        <v>794537</v>
+      </c>
+      <c r="J68" s="1">
+        <v>32064</v>
+      </c>
+      <c r="K68" s="1">
+        <v>507</v>
+      </c>
+      <c r="L68" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>1771300</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45692</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I69" s="1">
+        <v>84969</v>
+      </c>
+      <c r="J69" s="1">
+        <v>5453</v>
+      </c>
+      <c r="K69" s="1">
+        <v>41</v>
+      </c>
+      <c r="L69" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>379430</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" s="2">
+        <v>43144</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I70" s="1">
+        <v>133511</v>
+      </c>
+      <c r="J70" s="1">
+        <v>25452</v>
+      </c>
+      <c r="K70" s="1">
+        <v>451</v>
+      </c>
+      <c r="L70" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>1888930</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45013</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I71" s="1">
+        <v>57360</v>
+      </c>
+      <c r="J71" s="1">
+        <v>16108</v>
+      </c>
+      <c r="K71" s="1">
+        <v>110</v>
+      </c>
+      <c r="L71" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>2531310</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45750</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="1">
+        <v>2058</v>
+      </c>
+      <c r="J72" s="1">
+        <v>223</v>
+      </c>
+      <c r="K72" s="1">
+        <v>3</v>
+      </c>
+      <c r="L72" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>310950</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="2">
+        <v>42416</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="1">
+        <v>29425</v>
+      </c>
+      <c r="J73" s="1">
+        <v>14137</v>
+      </c>
+      <c r="K73" s="1">
+        <v>3417</v>
+      </c>
+      <c r="L73" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45760</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E74" s="2">
+        <v>41858</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I74" s="1">
+        <v>13994</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1535</v>
+      </c>
+      <c r="K74" s="1">
+        <v>5289</v>
+      </c>
+      <c r="L74" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>460950</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="2">
+        <v>43573</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I75" s="1">
+        <v>68854</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1388</v>
+      </c>
+      <c r="K75" s="1">
+        <v>2397</v>
+      </c>
+      <c r="L75" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1313140</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="2">
+        <v>44784</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I76" s="1">
+        <v>95780</v>
+      </c>
+      <c r="J76" s="1">
+        <v>4412</v>
+      </c>
+      <c r="K76" s="1">
+        <v>44</v>
+      </c>
+      <c r="L76" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>683320</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="2">
+        <v>43447</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I77" s="1">
+        <v>79352</v>
+      </c>
+      <c r="J77" s="1">
+        <v>2966</v>
+      </c>
+      <c r="K77" s="1">
+        <v>3266</v>
+      </c>
+      <c r="L77" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>32440</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="2">
+        <v>40129</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I78" s="1">
+        <v>22742</v>
+      </c>
+      <c r="J78" s="1">
+        <v>779</v>
+      </c>
+      <c r="K78" s="1">
+        <v>2354</v>
+      </c>
+      <c r="L78" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>294100</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" s="2">
+        <v>43390</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I79" s="1">
+        <v>202805</v>
+      </c>
+      <c r="J79" s="1">
+        <v>4198</v>
+      </c>
+      <c r="K79" s="1">
+        <v>62</v>
+      </c>
+      <c r="L79" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>397540</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43903</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I80" s="1">
+        <v>123897</v>
+      </c>
+      <c r="J80" s="1">
+        <v>21590</v>
+      </c>
+      <c r="K80" s="1">
+        <v>92</v>
+      </c>
+      <c r="L80" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>49520</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="2">
+        <v>41170</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I81" s="1">
+        <v>272581</v>
+      </c>
+      <c r="J81" s="1">
+        <v>17686</v>
+      </c>
+      <c r="K81" s="1">
+        <v>264</v>
+      </c>
+      <c r="L81" s="2">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>450540</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E82" s="2">
+        <v>42465</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I82" s="1">
+        <v>21194</v>
+      </c>
+      <c r="J82" s="1">
+        <v>637</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1339</v>
+      </c>
+      <c r="L82" s="2">
+        <v>45751</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
